--- a/public/Data/Conferences/conferences.xlsx
+++ b/public/Data/Conferences/conferences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\cse dept latest\CSE\frontend\public\Data\Conferences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\Conferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41DD838B-8238-4718-B03D-312C902782D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319AB0E7-5FFF-4436-920A-E2224E1EB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{127C30E9-BB18-4DDA-84E4-62808EAD8D5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S. No</t>
   </si>
@@ -56,9 +56,6 @@
     <t>From</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>2023-2024</t>
   </si>
   <si>
@@ -69,13 +66,43 @@
   </si>
   <si>
     <t>Thailand</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>Srimukh Sripad</t>
+  </si>
+  <si>
+    <t>AI Congress</t>
+  </si>
+  <si>
+    <t>Professors from USA, Australia, Netherlands, Denmark, UK, JNTUH, IIITH.</t>
+  </si>
+  <si>
+    <t>25-06-2021 To  26-06-2021</t>
+  </si>
+  <si>
+    <t>Prof.P.Nagabhushanam</t>
+  </si>
+  <si>
+    <t>Prof Satya Raghavacharya</t>
+  </si>
+  <si>
+    <t>Shashi Kanth</t>
+  </si>
+  <si>
+    <t>Raghavendra Selvan</t>
+  </si>
+  <si>
+    <t>Prof Parag Kulkarni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +123,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF555441"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,11 +204,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,6 +280,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938575A-0B20-45CA-9AAF-8E31D5B6B3BD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,32 +679,104 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
-        <v>500</v>
-      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Data/Conferences/conferences.xlsx
+++ b/public/Data/Conferences/conferences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>S. No</t>
   </si>
@@ -52,7 +52,8 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Prof.P.Nagabhushanam</t>
+    <t>Prof.P.Nagabhushanam, Prof Satya Raghavacharya,Shashi Kanth
+,Raghavendra Selvan,Prof Parag Kulkarni,Srimukh Sripad</t>
   </si>
   <si>
     <t>25-06-2021 To  26-06-2021</t>
@@ -62,21 +63,6 @@
   </si>
   <si>
     <t>Professors from USA, Australia, Netherlands, Denmark, UK, JNTUH, IIITH.</t>
-  </si>
-  <si>
-    <t>Prof Satya Raghavacharya</t>
-  </si>
-  <si>
-    <t>Shashi Kanth</t>
-  </si>
-  <si>
-    <t>Raghavendra Selvan</t>
-  </si>
-  <si>
-    <t>Prof Parag Kulkarni</t>
-  </si>
-  <si>
-    <t>Srimukh Sripad</t>
   </si>
 </sst>
 </file>
@@ -84,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +97,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -221,56 +201,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,10 +226,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -303,40 +238,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -649,19 +554,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="53.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48" customFormat="1" s="1">
@@ -706,7 +611,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="84.75" customFormat="1" s="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -727,68 +632,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>